--- a/biology/Zoologie/Allolobophora/Allolobophora.xlsx
+++ b/biology/Zoologie/Allolobophora/Allolobophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allolobophora est un genre de vers de terre de la famille des Lumbricidae. Il fait partie des groupes des endogés de surface qui selon la classification de Bouché[2], sont des espèces petites à moyennes qui vivent continuellement dans le sol, creusent des galeries horizontales et se nourrissent de matière organique. Certains de ses représentant sont très courants dans les prairies de France[3]. Ce genre fait notamment partie du régime alimentaire de la Taupe d'Europe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allolobophora est un genre de vers de terre de la famille des Lumbricidae. Il fait partie des groupes des endogés de surface qui selon la classification de Bouché, sont des espèces petites à moyennes qui vivent continuellement dans le sol, creusent des galeries horizontales et se nourrissent de matière organique. Certains de ses représentant sont très courants dans les prairies de France. Ce genre fait notamment partie du régime alimentaire de la Taupe d'Europe.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces européennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des espèces présentes en Europe selon Fauna Europaea                                      (11 janvier 2022)[4] et earthworm species[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des espèces présentes en Europe selon Fauna Europaea                                      (11 janvier 2022) et earthworm species :
 Allolobophora altimontana Mrsic, 1982 - Croatie, Slovénie
 Allolobophora bellicosa (Ude, 1922) - Macédoine
 Allolobophora burgondiae Bouché, 1972 - France
